--- a/10b/3_2023_12_09/Szeged.xlsx
+++ b/10b/3_2023_12_09/Szeged.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palyi\bullshitBundle\kossuth\10b\3_2023_12_09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{5B74BB11-3B84-443C-97C6-D93E40FB1C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A5B28B-B6FE-4ED8-A2C8-684595D5E93B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -458,28 +458,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="Q29" sqref="O29:Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="28" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="28" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1931</v>
       </c>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -680,7 +680,7 @@
         <v>2.9352479812641809E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -779,11 +779,11 @@
         <v>93.99</v>
       </c>
       <c r="AG3" s="2">
-        <f t="shared" ref="AG3:AG14" si="1">AF3/$AF$14</f>
+        <f t="shared" ref="AG3:AG13" si="1">AF3/$AF$14</f>
         <v>4.2992669122490314E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -886,7 +886,7 @@
         <v>6.7144312166085268E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -989,7 +989,7 @@
         <v>9.0219499402307848E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>0.1182256470932644</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>0.12944609792393452</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0.14769095655143813</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>0.13665652216340174</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>0.10305310921909687</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>7.3967456270888743E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>3.532940157595571E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1813,7 +1813,7 @@
         <v>2.5921848698494791E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>2186.186666666666</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>2437.6000000000004</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -2089,22 +2089,22 @@
         <v>2434.6</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
